--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_card_group_info[卡包信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_card_group_info[卡包信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -1057,10 +1057,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1161,193 +1161,33 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2</v>
+        <v>999999</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>999999</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="20" ht="12" customHeight="1"/>
+    <row r="21" ht="12" customHeight="1"/>
+    <row r="22" ht="12" customHeight="1"/>
+    <row r="23" ht="12" customHeight="1"/>
+    <row r="24" ht="12" customHeight="1"/>
+    <row r="25" ht="12" customHeight="1"/>
+    <row r="26" ht="12" customHeight="1"/>
+    <row r="27" ht="12" customHeight="1"/>
     <row r="28" ht="12" customHeight="1"/>
-    <row r="29" ht="12" customHeight="1"/>
-    <row r="30" ht="12" customHeight="1"/>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
-    <row r="34" ht="12" customHeight="1"/>
-    <row r="35" ht="12" customHeight="1"/>
-    <row r="36" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:G88">
     <sortCondition ref="A4"/>
